--- a/Unity/Assets/Config/Excel/InteractivePointConfig.xlsx
+++ b/Unity/Assets/Config/Excel/InteractivePointConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
@@ -50,10 +50,19 @@
     <t>string</t>
   </si>
   <si>
-    <t>传送点</t>
+    <t>主城传送点</t>
   </si>
   <si>
     <t>Teleport</t>
+  </si>
+  <si>
+    <t>地图1传送点</t>
+  </si>
+  <si>
+    <t>地图2传送点</t>
+  </si>
+  <si>
+    <t>地图3传送点</t>
   </si>
   <si>
     <t>招募大厅</t>
@@ -1069,10 +1078,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I9"/>
+  <dimension ref="C3:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C6" sqref="C6:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1154,7 +1163,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7" s="4"/>
     </row>
@@ -1163,10 +1172,10 @@
         <v>1002</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F8" s="4"/>
     </row>
@@ -1175,12 +1184,45 @@
         <v>1003</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" s="1">
+        <v>1004</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="1" t="s">
+    </row>
+    <row r="11" spans="3:5">
+      <c r="C11" s="1">
+        <v>1005</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12" s="1">
+        <v>1006</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
